--- a/Document/Project Report Term 1/gantt-chart.xlsx
+++ b/Document/Project Report Term 1/gantt-chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Document\Project Report Term 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course 4th year\Senior project\git\Document\Project Report Term 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Proposal defense 12/9/16</t>
   </si>
@@ -56,27 +56,9 @@
     <t>Febuary</t>
   </si>
   <si>
-    <t>ศึกษาการใช้งาน API NER,SparkML,Deepdive</t>
-  </si>
-  <si>
-    <t>ศึกษาการใช้งาน PDFBox และ PDFMiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ทดสอบการใช้ API สำหรับตัดคำ </t>
-  </si>
-  <si>
     <t>ทดสอบประสิทธิภาพ PDFBox และทำการ clean data</t>
   </si>
   <si>
-    <t>ออกแบบ model จาก traning data</t>
-  </si>
-  <si>
-    <t>ทดสอบ Testing Data</t>
-  </si>
-  <si>
-    <t>Tuning Model และ Retest Performance</t>
-  </si>
-  <si>
     <t>ออกแบบ Web Application สำหรับ training data &amp; tag</t>
   </si>
   <si>
@@ -141,20 +123,86 @@
   </si>
   <si>
     <t>สร้าง Web Applicaion สำหรับ Search Tag</t>
+  </si>
+  <si>
+    <t>ศึกษาเทคนิค</t>
+  </si>
+  <si>
+    <t>เลือกเอกสารสำหรับเป็นตัวอย่าง</t>
+  </si>
+  <si>
+    <t>จัด workshop</t>
+  </si>
+  <si>
+    <t>ออกแบบเครื่องมือสำหรับสะกัดใจความ</t>
+  </si>
+  <si>
+    <t>สะกัดใจความ</t>
+  </si>
+  <si>
+    <t>สร้าง ML model</t>
+  </si>
+  <si>
+    <t>ทดสอบ model</t>
+  </si>
+  <si>
+    <t>design Web App</t>
+  </si>
+  <si>
+    <t>Dev Web App</t>
+  </si>
+  <si>
+    <t>test system</t>
+  </si>
+  <si>
+    <t>write report</t>
+  </si>
+  <si>
+    <t>ศึกษาเทคนิค อัลกอริธึ่ม และเทคโนโลยีที่เกี่ยวข้องเพื่อเตรียมความพร้อมในการพัฒนาระบบ</t>
+  </si>
+  <si>
+    <t>พัฒนา Web Application สำหรับ Search tag</t>
+  </si>
+  <si>
+    <t>ทดสอบระบบและปรับแก้ตามความเหมาะสม</t>
+  </si>
+  <si>
+    <t>ทดสอบการใช้งาน Word Segmentation</t>
+  </si>
+  <si>
+    <t>ศึกษาและทดสอบการใช้งาน PDFBox และ PDFMiner</t>
+  </si>
+  <si>
+    <t>ทดสอบ Machine Learning Model และปรับให้เมาะสม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สร้าง Machine Learning Model สำหรับสอนให้ระบบเข้าใจเข้ากระบวนการคิดและทำการติด Tag </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -189,15 +237,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,406 +531,1223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="35" width="3.5703125" customWidth="1"/>
-    <col min="36" max="36" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.875" customWidth="1"/>
+    <col min="2" max="35" width="1.625" customWidth="1"/>
+    <col min="36" max="36" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4" t="s">
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4" t="s">
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8">
+        <v>13</v>
+      </c>
+      <c r="O2" s="8">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>16</v>
+      </c>
+      <c r="R2" s="8">
+        <v>17</v>
+      </c>
+      <c r="S2" s="8">
+        <v>18</v>
+      </c>
+      <c r="T2" s="8">
+        <v>19</v>
+      </c>
+      <c r="U2" s="8">
+        <v>20</v>
+      </c>
+      <c r="V2" s="8">
         <v>21</v>
       </c>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4" t="s">
+      <c r="W2" s="8">
         <v>22</v>
       </c>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="X2" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+    </row>
+    <row r="5" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="6" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+    </row>
+    <row r="8" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+    </row>
+    <row r="11" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+    </row>
+    <row r="12" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+    </row>
+    <row r="13" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2">
-        <v>13</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>17</v>
-      </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-      <c r="V2">
-        <v>21</v>
-      </c>
-      <c r="W2">
-        <v>22</v>
-      </c>
-      <c r="X2">
-        <v>23</v>
-      </c>
-      <c r="Y2">
-        <v>24</v>
-      </c>
-      <c r="Z2">
-        <v>25</v>
-      </c>
-      <c r="AA2">
-        <v>26</v>
-      </c>
-      <c r="AB2">
-        <v>27</v>
-      </c>
-      <c r="AC2">
-        <v>28</v>
-      </c>
-      <c r="AD2">
-        <v>29</v>
-      </c>
-      <c r="AE2">
-        <v>30</v>
-      </c>
-      <c r="AF2">
-        <v>31</v>
-      </c>
-      <c r="AG2">
-        <v>32</v>
-      </c>
-      <c r="AH2">
-        <v>33</v>
-      </c>
-      <c r="AI2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:35">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:36">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:36">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+    </row>
+    <row r="17" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:36">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:36">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+    </row>
+    <row r="19" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+    </row>
+    <row r="20" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-    </row>
-    <row r="21" spans="1:36">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-    </row>
-    <row r="22" spans="1:36">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+    </row>
+    <row r="21" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+    </row>
+    <row r="22" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-    </row>
-    <row r="23" spans="1:36">
-      <c r="A23" t="s">
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+    </row>
+    <row r="23" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+    </row>
+    <row r="24" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="3"/>
+    </row>
+    <row r="25" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="AJ25" s="3"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AI37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AI38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>26</v>
       </c>
-      <c r="AI23" s="2"/>
-    </row>
-    <row r="29" spans="1:36">
-      <c r="AI29" t="s">
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AI39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AI40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ42" t="s">
         <v>30</v>
       </c>
-      <c r="AJ29" t="s">
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
-      <c r="AI30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ30" t="s">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ44" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36">
-      <c r="AI31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36">
-      <c r="AI32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="36:36">
-      <c r="AJ33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="36:36">
-      <c r="AJ34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="36:36">
-      <c r="AJ35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="36:36">
-      <c r="AJ36" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>